--- a/website/csv_files/PhD_Download.xlsx
+++ b/website/csv_files/PhD_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,73 +484,36 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>edited new name</t>
+          <t>Ved</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>jndvskj</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>knldvsnvlk</t>
+          <t>dlksnv</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>dfkjnv</t>
+          <t>New Title</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>44930</v>
+        <v>44927</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44929</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>kjdbnksj</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>cdskl</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>kjds</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
     </row>
   </sheetData>

--- a/website/csv_files/PhD_Download.xlsx
+++ b/website/csv_files/PhD_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,35 +484,109 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>dfbdfbdfbdf</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>dbfbdfbdf</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bdfbdfbdfbdf</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>dfbdfbdfbdf</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dfbdfbdf</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dfbdfbdf</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>bdfbdfb</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>dbdfbdfbdf</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45008</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Ved</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>CSE</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>dlksnv</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>New Title</t>
         </is>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>44927</v>
       </c>
     </row>

--- a/website/csv_files/PhD_Download.xlsx
+++ b/website/csv_files/PhD_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,35 +558,146 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gaurav</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>sdlknnvdskj</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>skjvbsdkj</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Ved</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>CSE</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>dlksnv</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>New Title</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I5" s="2" t="n">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dklnbdkj</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>kjndfbkjd</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>lnsdfiovbsnd</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>dskjvndj</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>dskjvnsdj</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>snvklnsvkjl</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nsdklvnsdklv</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sklvnsvjjk</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="I7" s="2" t="n">
         <v>44927</v>
       </c>
     </row>
